--- a/TestData/Litigation_Case_Upload_Format1.xlsx
+++ b/TestData/Litigation_Case_Upload_Format1.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Case Payments" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:G14"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -136,9 +132,6 @@
     <t xml:space="preserve">Financial Year </t>
   </si>
   <si>
-    <t>Defendant</t>
-  </si>
-  <si>
     <t>Revenue 555</t>
   </si>
   <si>
@@ -288,16 +281,19 @@
     <t>10-Dec-2023</t>
   </si>
   <si>
-    <t>Cryptocurrency</t>
-  </si>
-  <si>
-    <t>Order as on dat 07072024</t>
-  </si>
-  <si>
     <t>14-Sep-2024</t>
   </si>
   <si>
-    <t>Order as on 14</t>
+    <t xml:space="preserve">Defendant </t>
+  </si>
+  <si>
+    <t>Debit card</t>
+  </si>
+  <si>
+    <t>Order as on 22</t>
+  </si>
+  <si>
+    <t>Order as on dat 11072024</t>
   </si>
 </sst>
 </file>
@@ -954,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1046,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>15</v>
@@ -1091,10 +1087,10 @@
         <v>28</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>29</v>
@@ -1103,7 +1099,7 @@
         <v>30</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>31</v>
@@ -1117,49 +1113,49 @@
     </row>
     <row r="2" spans="1:39" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="9">
-        <v>29072024</v>
+        <v>18152024</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
@@ -1173,27 +1169,27 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF2" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="9"/>
       <c r="AH2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="AJ2" s="40"/>
       <c r="AK2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL2" s="9">
         <v>0</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1210,7 +1206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1218,7 +1214,7 @@
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="11" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="12" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
@@ -1229,42 +1225,42 @@
   <sheetData>
     <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="D1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>29072024</v>
+        <v>18152024</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="30"/>
       <c r="F2" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="31"/>
@@ -1287,7 +1283,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,42 +1299,42 @@
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>29072024</v>
+        <v>18152024</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>83</v>
-      </c>
       <c r="F2" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1351,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,46 +1366,46 @@
   <sheetData>
     <row r="1" spans="1:9" s="38" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>61</v>
-      </c>
       <c r="I1" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19">
-        <v>29072024</v>
+        <v>18152024</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="20">
         <v>7500</v>
@@ -1421,7 +1417,7 @@
         <v>600</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Litigation_Case_Upload_Format1.xlsx
+++ b/TestData/Litigation_Case_Upload_Format1.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Litigation-Project 10 April2024\Litigation-Project 10 April2024\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4185" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="Case Payments" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G14"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -290,10 +294,10 @@
     <t>Debit card</t>
   </si>
   <si>
-    <t>Order as on 22</t>
-  </si>
-  <si>
-    <t>Order as on dat 11072024</t>
+    <t>Order as on 8122024</t>
+  </si>
+  <si>
+    <t>Order as on dat 13082024</t>
   </si>
 </sst>
 </file>
@@ -950,7 +954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1119,7 +1123,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="9">
-        <v>18152024</v>
+        <v>29152024</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
@@ -1251,7 +1255,7 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>18152024</v>
+        <v>29152024</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>81</v>
@@ -1319,7 +1323,7 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>18152024</v>
+        <v>29152024</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>50</v>
@@ -1347,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1403,7 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19">
-        <v>18152024</v>
+        <v>29152024</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>83</v>

--- a/TestData/Litigation_Case_Upload_Format1.xlsx
+++ b/TestData/Litigation_Case_Upload_Format1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4185" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="9345" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -270,9 +270,6 @@
     <t>IT</t>
   </si>
   <si>
-    <t>approver@regtrack.com</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
@@ -291,13 +288,16 @@
     <t xml:space="preserve">Defendant </t>
   </si>
   <si>
-    <t>Debit card</t>
-  </si>
-  <si>
-    <t>Order as on 8122024</t>
-  </si>
-  <si>
-    <t>Order as on dat 13082024</t>
+    <t>debit cards For SBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> companyadmin@regtrack.com</t>
+  </si>
+  <si>
+    <t>Order as 882327225</t>
+  </si>
+  <si>
+    <t>Order as 124215</t>
   </si>
 </sst>
 </file>
@@ -954,7 +954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -976,7 +976,7 @@
     <col min="14" max="14" width="21.85546875" customWidth="1"/>
     <col min="15" max="16" width="17.85546875" customWidth="1"/>
     <col min="17" max="17" width="25.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="18" max="18" width="29.140625" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" customWidth="1"/>
     <col min="20" max="25" width="14.42578125" customWidth="1"/>
     <col min="26" max="26" width="20.28515625" customWidth="1"/>
@@ -1115,15 +1115,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="9">
-        <v>29152024</v>
+        <v>8737225</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>38</v>
@@ -1173,10 +1173,10 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF2" s="42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AG2" s="9"/>
       <c r="AH2" s="9" t="s">
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1"/>
-    <hyperlink ref="AF2" r:id="rId2"/>
+    <hyperlink ref="R2" r:id="rId1" display="snehal10.patil@tlregtech.in"/>
+    <hyperlink ref="AF2" r:id="rId2" display="snehal10.patil@tlregtech.in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1255,16 +1255,16 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>29152024</v>
+        <v>8737225</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="30"/>
       <c r="F2" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="31"/>
@@ -1323,13 +1323,13 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>29152024</v>
+        <v>8737225</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>84</v>
@@ -1351,7 +1351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1403,10 +1403,10 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19">
-        <v>29152024</v>
+        <v>8737225</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>71</v>
@@ -1421,7 +1421,7 @@
         <v>600</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
